--- a/Code/Results/Cases/Case_1_180/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_180/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00139673910728</v>
+        <v>1.028904871456082</v>
       </c>
       <c r="D2">
-        <v>1.028470250144045</v>
+        <v>1.033013221195416</v>
       </c>
       <c r="E2">
-        <v>1.015947707437262</v>
+        <v>1.03818385796169</v>
       </c>
       <c r="F2">
-        <v>1.022915388635817</v>
+        <v>1.047678363721872</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045107411546931</v>
+        <v>1.035483074724495</v>
       </c>
       <c r="J2">
-        <v>1.023535754054374</v>
+        <v>1.034054601174966</v>
       </c>
       <c r="K2">
-        <v>1.039546701715497</v>
+        <v>1.035816794069211</v>
       </c>
       <c r="L2">
-        <v>1.027189247874492</v>
+        <v>1.040972615499805</v>
       </c>
       <c r="M2">
-        <v>1.034064446389797</v>
+        <v>1.050440329937776</v>
       </c>
       <c r="N2">
-        <v>1.011747961658152</v>
+        <v>1.015356004987703</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005134378163642</v>
+        <v>1.029707341409009</v>
       </c>
       <c r="D3">
-        <v>1.030495323134107</v>
+        <v>1.033454025046741</v>
       </c>
       <c r="E3">
-        <v>1.019064641567044</v>
+        <v>1.038906953242518</v>
       </c>
       <c r="F3">
-        <v>1.026458944657191</v>
+        <v>1.048506246900083</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045907576476574</v>
+        <v>1.035610123831077</v>
       </c>
       <c r="J3">
-        <v>1.025486046772504</v>
+        <v>1.034498630581147</v>
       </c>
       <c r="K3">
-        <v>1.040752330603628</v>
+        <v>1.036067473869659</v>
       </c>
       <c r="L3">
-        <v>1.029459262291534</v>
+        <v>1.041505901525386</v>
       </c>
       <c r="M3">
-        <v>1.036764111545373</v>
+        <v>1.051080064207013</v>
       </c>
       <c r="N3">
-        <v>1.012405543154825</v>
+        <v>1.015504557472633</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007510494307318</v>
+        <v>1.030227332070611</v>
       </c>
       <c r="D4">
-        <v>1.031786125450458</v>
+        <v>1.033739663315654</v>
       </c>
       <c r="E4">
-        <v>1.021051971189979</v>
+        <v>1.039375907060998</v>
       </c>
       <c r="F4">
-        <v>1.028717925209455</v>
+        <v>1.049043166674329</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046408408557731</v>
+        <v>1.035691441394329</v>
       </c>
       <c r="J4">
-        <v>1.026724012694041</v>
+        <v>1.034786017460573</v>
       </c>
       <c r="K4">
-        <v>1.041515478307038</v>
+        <v>1.036229357644796</v>
       </c>
       <c r="L4">
-        <v>1.030902787192068</v>
+        <v>1.041851364307769</v>
       </c>
       <c r="M4">
-        <v>1.038481677820564</v>
+        <v>1.051494587953924</v>
       </c>
       <c r="N4">
-        <v>1.012822793568379</v>
+        <v>1.015600664655777</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008499567741853</v>
+        <v>1.030446111262964</v>
       </c>
       <c r="D5">
-        <v>1.032324183822394</v>
+        <v>1.03385984158418</v>
       </c>
       <c r="E5">
-        <v>1.021880572958549</v>
+        <v>1.039573307733649</v>
       </c>
       <c r="F5">
-        <v>1.029659711195264</v>
+        <v>1.049269178678377</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046614963257646</v>
+        <v>1.035725413081249</v>
       </c>
       <c r="J5">
-        <v>1.027238846118603</v>
+        <v>1.034906850397865</v>
       </c>
       <c r="K5">
-        <v>1.04183230548995</v>
+        <v>1.036297335086757</v>
       </c>
       <c r="L5">
-        <v>1.031503735837315</v>
+        <v>1.041996688968035</v>
       </c>
       <c r="M5">
-        <v>1.039196910946309</v>
+        <v>1.051668989133637</v>
       </c>
       <c r="N5">
-        <v>1.012996276133625</v>
+        <v>1.015641063755095</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008665068701929</v>
+        <v>1.030482855469182</v>
       </c>
       <c r="D6">
-        <v>1.032414259204056</v>
+        <v>1.033880025614772</v>
       </c>
       <c r="E6">
-        <v>1.022019301538321</v>
+        <v>1.039606466924337</v>
       </c>
       <c r="F6">
-        <v>1.029817385238255</v>
+        <v>1.04930714408772</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04664941205265</v>
+        <v>1.035731104493674</v>
       </c>
       <c r="J6">
-        <v>1.027324964033601</v>
+        <v>1.034927139650349</v>
       </c>
       <c r="K6">
-        <v>1.041885269404514</v>
+        <v>1.036308744159924</v>
       </c>
       <c r="L6">
-        <v>1.031604295602722</v>
+        <v>1.042021094975071</v>
       </c>
       <c r="M6">
-        <v>1.039316606284483</v>
+        <v>1.05169827974777</v>
       </c>
       <c r="N6">
-        <v>1.013025292754149</v>
+        <v>1.015647846671965</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007523748650903</v>
+        <v>1.030230254723026</v>
       </c>
       <c r="D7">
-        <v>1.031793332954179</v>
+        <v>1.033741268768988</v>
       </c>
       <c r="E7">
-        <v>1.0210630697489</v>
+        <v>1.039378543748801</v>
       </c>
       <c r="F7">
-        <v>1.028730540094073</v>
+        <v>1.049046185517263</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046411184174763</v>
+        <v>1.035691896168323</v>
       </c>
       <c r="J7">
-        <v>1.02673091377603</v>
+        <v>1.034787631976952</v>
       </c>
       <c r="K7">
-        <v>1.041519727401826</v>
+        <v>1.036230266272672</v>
       </c>
       <c r="L7">
-        <v>1.03091084011628</v>
+        <v>1.04185330578298</v>
       </c>
       <c r="M7">
-        <v>1.038491261407674</v>
+        <v>1.051496917781213</v>
       </c>
       <c r="N7">
-        <v>1.012825119173698</v>
+        <v>1.015601204488256</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002668853624675</v>
+        <v>1.029175915856174</v>
       </c>
       <c r="D8">
-        <v>1.029158735296279</v>
+        <v>1.033162107153829</v>
       </c>
       <c r="E8">
-        <v>1.017007327749938</v>
+        <v>1.038428010159133</v>
       </c>
       <c r="F8">
-        <v>1.024120121393577</v>
+        <v>1.047957896020251</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045381371542155</v>
+        <v>1.035526195752482</v>
       </c>
       <c r="J8">
-        <v>1.024199920357855</v>
+        <v>1.03420464768024</v>
       </c>
       <c r="K8">
-        <v>1.039957703558922</v>
+        <v>1.035901578594102</v>
       </c>
       <c r="L8">
-        <v>1.027961748474084</v>
+        <v>1.041152760125827</v>
       </c>
       <c r="M8">
-        <v>1.034982989106485</v>
+        <v>1.050656411451289</v>
       </c>
       <c r="N8">
-        <v>1.011971930225352</v>
+        <v>1.015406212062846</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9937751000085029</v>
+        <v>1.027323774600915</v>
       </c>
       <c r="D9">
-        <v>1.024362416120185</v>
+        <v>1.032144764573492</v>
       </c>
       <c r="E9">
-        <v>1.009625054903412</v>
+        <v>1.036761274880271</v>
       </c>
       <c r="F9">
-        <v>1.015725035917004</v>
+        <v>1.046049658050443</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043434349711933</v>
+        <v>1.035227413873237</v>
       </c>
       <c r="J9">
-        <v>1.019549606876874</v>
+        <v>1.033177949911722</v>
       </c>
       <c r="K9">
-        <v>1.037072220131334</v>
+        <v>1.035319970126967</v>
       </c>
       <c r="L9">
-        <v>1.0225638788923</v>
+        <v>1.039921371279671</v>
       </c>
       <c r="M9">
-        <v>1.028568035190552</v>
+        <v>1.049179797332602</v>
       </c>
       <c r="N9">
-        <v>1.010403197314955</v>
+        <v>1.015062507595404</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9875973101412421</v>
+        <v>1.026092978831612</v>
       </c>
       <c r="D10">
-        <v>1.021055540114674</v>
+        <v>1.03146881100693</v>
       </c>
       <c r="E10">
-        <v>1.004531525159693</v>
+        <v>1.035655765850795</v>
       </c>
       <c r="F10">
-        <v>1.00993002608239</v>
+        <v>1.044783990092038</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042043353831781</v>
+        <v>1.035023700731247</v>
       </c>
       <c r="J10">
-        <v>1.016311801838905</v>
+        <v>1.032493962770222</v>
       </c>
       <c r="K10">
-        <v>1.035054759556609</v>
+        <v>1.034930677489589</v>
       </c>
       <c r="L10">
-        <v>1.018819440715297</v>
+        <v>1.039102594784243</v>
       </c>
       <c r="M10">
-        <v>1.024122275940729</v>
+        <v>1.048198495304035</v>
       </c>
       <c r="N10">
-        <v>1.009310340920545</v>
+        <v>1.014833330793427</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9848583381971167</v>
+        <v>1.025560993700239</v>
       </c>
       <c r="D11">
-        <v>1.019596303852196</v>
+        <v>1.031176679387392</v>
       </c>
       <c r="E11">
-        <v>1.002281942615078</v>
+        <v>1.035178432609213</v>
       </c>
       <c r="F11">
-        <v>1.00736987909747</v>
+        <v>1.044237507999416</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041418033447769</v>
+        <v>1.034934426776982</v>
       </c>
       <c r="J11">
-        <v>1.014874882346151</v>
+        <v>1.032197918670539</v>
       </c>
       <c r="K11">
-        <v>1.034157888871516</v>
+        <v>1.034761756380855</v>
       </c>
       <c r="L11">
-        <v>1.017160952767826</v>
+        <v>1.038748584526108</v>
       </c>
       <c r="M11">
-        <v>1.022154135881413</v>
+        <v>1.047774339987372</v>
       </c>
       <c r="N11">
-        <v>1.008825222924336</v>
+        <v>1.014734091177242</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.983830905770949</v>
+        <v>1.02536353642167</v>
       </c>
       <c r="D12">
-        <v>1.019050046324202</v>
+        <v>1.031068254919363</v>
       </c>
       <c r="E12">
-        <v>1.001439438020272</v>
+        <v>1.03500133605578</v>
       </c>
       <c r="F12">
-        <v>1.006410939787714</v>
+        <v>1.0440347568316</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041182218378542</v>
+        <v>1.034901107229482</v>
       </c>
       <c r="J12">
-        <v>1.014335692550317</v>
+        <v>1.032087975102094</v>
       </c>
       <c r="K12">
-        <v>1.033821157137612</v>
+        <v>1.034698959501569</v>
       </c>
       <c r="L12">
-        <v>1.016539112531633</v>
+        <v>1.038617169842501</v>
       </c>
       <c r="M12">
-        <v>1.021416338426471</v>
+        <v>1.047616905046792</v>
       </c>
       <c r="N12">
-        <v>1.008643172716355</v>
+        <v>1.014697228972916</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9840517560720656</v>
+        <v>1.025405885056308</v>
       </c>
       <c r="D13">
-        <v>1.019167414010867</v>
+        <v>1.031091508402371</v>
       </c>
       <c r="E13">
-        <v>1.001620475634412</v>
+        <v>1.035039314501259</v>
       </c>
       <c r="F13">
-        <v>1.006617002670851</v>
+        <v>1.044078236903286</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041232963287971</v>
+        <v>1.034908261578771</v>
       </c>
       <c r="J13">
-        <v>1.01445160083224</v>
+        <v>1.032111557426555</v>
       </c>
       <c r="K13">
-        <v>1.033893551437491</v>
+        <v>1.034712431981047</v>
       </c>
       <c r="L13">
-        <v>1.016672765794628</v>
+        <v>1.038645355070946</v>
       </c>
       <c r="M13">
-        <v>1.021574908061688</v>
+        <v>1.047650670132555</v>
       </c>
       <c r="N13">
-        <v>1.008682308205121</v>
+        <v>1.014705136041694</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9847736181428112</v>
+        <v>1.025544668837492</v>
       </c>
       <c r="D14">
-        <v>1.019551237114885</v>
+        <v>1.031167715216714</v>
       </c>
       <c r="E14">
-        <v>1.002212443612889</v>
+        <v>1.035163789533416</v>
       </c>
       <c r="F14">
-        <v>1.007290777856403</v>
+        <v>1.044220743685255</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041398613696961</v>
+        <v>1.034931675816607</v>
       </c>
       <c r="J14">
-        <v>1.01483042524077</v>
+        <v>1.032188830277177</v>
       </c>
       <c r="K14">
-        <v>1.034130128398704</v>
+        <v>1.034756566625977</v>
       </c>
       <c r="L14">
-        <v>1.017109671014352</v>
+        <v>1.038737720096415</v>
       </c>
       <c r="M14">
-        <v>1.02209328845979</v>
+        <v>1.047761324004965</v>
       </c>
       <c r="N14">
-        <v>1.008810212857431</v>
+        <v>1.014731044137016</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9852170347776326</v>
+        <v>1.025630197464907</v>
       </c>
       <c r="D15">
-        <v>1.019787158544766</v>
+        <v>1.031214680234546</v>
       </c>
       <c r="E15">
-        <v>1.002576250073624</v>
+        <v>1.035240510101574</v>
       </c>
       <c r="F15">
-        <v>1.007704844063599</v>
+        <v>1.044308578235371</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041500204208105</v>
+        <v>1.034946081024799</v>
       </c>
       <c r="J15">
-        <v>1.015063102401761</v>
+        <v>1.032236443372757</v>
       </c>
       <c r="K15">
-        <v>1.034275412137292</v>
+        <v>1.034783752576464</v>
       </c>
       <c r="L15">
-        <v>1.017378086664184</v>
+        <v>1.038794639949144</v>
       </c>
       <c r="M15">
-        <v>1.022411778019157</v>
+        <v>1.047829516830923</v>
       </c>
       <c r="N15">
-        <v>1.008888771148013</v>
+        <v>1.014747006958829</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9877777016427095</v>
+        <v>1.026128305262976</v>
       </c>
       <c r="D16">
-        <v>1.021151798315072</v>
+        <v>1.031488210803519</v>
       </c>
       <c r="E16">
-        <v>1.004679869928125</v>
+        <v>1.035687473700931</v>
       </c>
       <c r="F16">
-        <v>1.010098833881908</v>
+        <v>1.044820291371454</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042084362238201</v>
+        <v>1.035029603179151</v>
       </c>
       <c r="J16">
-        <v>1.016406412197915</v>
+        <v>1.032513613028524</v>
       </c>
       <c r="K16">
-        <v>1.035113783163755</v>
+        <v>1.034941880858257</v>
       </c>
       <c r="L16">
-        <v>1.018928707903083</v>
+        <v>1.03912610048107</v>
       </c>
       <c r="M16">
-        <v>1.024251964380213</v>
+        <v>1.048226661155544</v>
       </c>
       <c r="N16">
-        <v>1.009342280137554</v>
+        <v>1.014839916946017</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9893665106410794</v>
+        <v>1.026441012776845</v>
       </c>
       <c r="D17">
-        <v>1.02200039541314</v>
+        <v>1.031659940826763</v>
       </c>
       <c r="E17">
-        <v>1.005987420588148</v>
+        <v>1.035968207552951</v>
       </c>
       <c r="F17">
-        <v>1.011586663949009</v>
+        <v>1.045141694819463</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042444569299487</v>
+        <v>1.035081709867543</v>
       </c>
       <c r="J17">
-        <v>1.017239541475662</v>
+        <v>1.032687509133164</v>
       </c>
       <c r="K17">
-        <v>1.035633369114144</v>
+        <v>1.035040976438086</v>
       </c>
       <c r="L17">
-        <v>1.01989127680042</v>
+        <v>1.039334158671545</v>
       </c>
       <c r="M17">
-        <v>1.025394541808704</v>
+        <v>1.048475982693059</v>
       </c>
       <c r="N17">
-        <v>1.009623520932285</v>
+        <v>1.014898196055401</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9902870976004792</v>
+        <v>1.026623502047176</v>
       </c>
       <c r="D18">
-        <v>1.022492738867762</v>
+        <v>1.031760162014451</v>
       </c>
       <c r="E18">
-        <v>1.006745862997531</v>
+        <v>1.036132085892215</v>
       </c>
       <c r="F18">
-        <v>1.012449606069983</v>
+        <v>1.045329314431808</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042652457925735</v>
+        <v>1.035112000027253</v>
       </c>
       <c r="J18">
-        <v>1.017722136109694</v>
+        <v>1.032788951938248</v>
       </c>
       <c r="K18">
-        <v>1.035934193587827</v>
+        <v>1.035098742893802</v>
       </c>
       <c r="L18">
-        <v>1.020449161220936</v>
+        <v>1.039455566079871</v>
       </c>
       <c r="M18">
-        <v>1.026056848483476</v>
+        <v>1.048621480446919</v>
       </c>
       <c r="N18">
-        <v>1.00978642011133</v>
+        <v>1.014932188802114</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.990599965989529</v>
+        <v>1.02668574176725</v>
       </c>
       <c r="D19">
-        <v>1.022660173059464</v>
+        <v>1.031794343943546</v>
       </c>
       <c r="E19">
-        <v>1.007003763413161</v>
+        <v>1.036187986334849</v>
       </c>
       <c r="F19">
-        <v>1.012743028776635</v>
+        <v>1.04539331331877</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042722969573279</v>
+        <v>1.03512231073113</v>
       </c>
       <c r="J19">
-        <v>1.017886125322806</v>
+        <v>1.03282354333341</v>
       </c>
       <c r="K19">
-        <v>1.036036389581437</v>
+        <v>1.035118433903118</v>
       </c>
       <c r="L19">
-        <v>1.020638787270233</v>
+        <v>1.039496971401498</v>
       </c>
       <c r="M19">
-        <v>1.026281983725081</v>
+        <v>1.048671103700397</v>
       </c>
       <c r="N19">
-        <v>1.009841772494221</v>
+        <v>1.01494377935532</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9891966845633565</v>
+        <v>1.026407452663173</v>
       </c>
       <c r="D20">
-        <v>1.021909621778031</v>
+        <v>1.031641510223806</v>
       </c>
       <c r="E20">
-        <v>1.005847572338884</v>
+        <v>1.03593807389953</v>
       </c>
       <c r="F20">
-        <v>1.011427541466618</v>
+        <v>1.045107195697065</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042406152109717</v>
+        <v>1.035076129939657</v>
       </c>
       <c r="J20">
-        <v>1.017150503127074</v>
+        <v>1.032668850460587</v>
       </c>
       <c r="K20">
-        <v>1.03557785494259</v>
+        <v>1.035030347961004</v>
       </c>
       <c r="L20">
-        <v>1.019788372688782</v>
+        <v>1.03931183075318</v>
       </c>
       <c r="M20">
-        <v>1.025272384112249</v>
+        <v>1.048449225316909</v>
       </c>
       <c r="N20">
-        <v>1.009593465242091</v>
+        <v>1.014891943303769</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9845613290912056</v>
+        <v>1.025503796436726</v>
       </c>
       <c r="D21">
-        <v>1.019438328642293</v>
+        <v>1.031145271813278</v>
       </c>
       <c r="E21">
-        <v>1.002038316951158</v>
+        <v>1.035127129028734</v>
       </c>
       <c r="F21">
-        <v>1.00709259118707</v>
+        <v>1.044178772440753</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041349932307592</v>
+        <v>1.034924785296529</v>
       </c>
       <c r="J21">
-        <v>1.014719023163671</v>
+        <v>1.032166074775023</v>
       </c>
       <c r="K21">
-        <v>1.034060562371964</v>
+        <v>1.034743571500109</v>
       </c>
       <c r="L21">
-        <v>1.016981175418943</v>
+        <v>1.038710518664165</v>
       </c>
       <c r="M21">
-        <v>1.021940826705031</v>
+        <v>1.047728736002092</v>
       </c>
       <c r="N21">
-        <v>1.008772599913822</v>
+        <v>1.014723414850051</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9815884733209563</v>
+        <v>1.024936475699422</v>
       </c>
       <c r="D22">
-        <v>1.017859975907141</v>
+        <v>1.030833766860028</v>
       </c>
       <c r="E22">
-        <v>0.9996031550750544</v>
+        <v>1.034618450191537</v>
       </c>
       <c r="F22">
-        <v>1.004320643144613</v>
+        <v>1.043596405936088</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040665298700338</v>
+        <v>1.03482870805254</v>
       </c>
       <c r="J22">
-        <v>1.013158589909881</v>
+        <v>1.031850078385979</v>
       </c>
       <c r="K22">
-        <v>1.03308573625365</v>
+        <v>1.034562963180436</v>
       </c>
       <c r="L22">
-        <v>1.015182477642267</v>
+        <v>1.03833291634058</v>
       </c>
       <c r="M22">
-        <v>1.019806990434748</v>
+        <v>1.047276403351413</v>
       </c>
       <c r="N22">
-        <v>1.008245716177574</v>
+        <v>1.01461745345291</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9831701349543401</v>
+        <v>1.025237142564322</v>
       </c>
       <c r="D23">
-        <v>1.018699061234043</v>
+        <v>1.030998853492848</v>
       </c>
       <c r="E23">
-        <v>1.000897985882843</v>
+        <v>1.034887996578766</v>
       </c>
       <c r="F23">
-        <v>1.005794622520625</v>
+        <v>1.043904998850608</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041030213537657</v>
+        <v>1.034879727453308</v>
       </c>
       <c r="J23">
-        <v>1.013988878516306</v>
+        <v>1.032017582359473</v>
       </c>
       <c r="K23">
-        <v>1.033604518453362</v>
+        <v>1.034658735142385</v>
       </c>
       <c r="L23">
-        <v>1.016139274892436</v>
+        <v>1.038533045742376</v>
       </c>
       <c r="M23">
-        <v>1.020941981980509</v>
+        <v>1.047516129565426</v>
       </c>
       <c r="N23">
-        <v>1.008526071865176</v>
+        <v>1.014673625512924</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9892734405952721</v>
+        <v>1.026422616749104</v>
       </c>
       <c r="D24">
-        <v>1.021950646592032</v>
+        <v>1.031649838053459</v>
       </c>
       <c r="E24">
-        <v>1.005910776793774</v>
+        <v>1.035951689595823</v>
       </c>
       <c r="F24">
-        <v>1.011499457135738</v>
+        <v>1.045122783900998</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042423518020101</v>
+        <v>1.035078651586588</v>
       </c>
       <c r="J24">
-        <v>1.017190746079276</v>
+        <v>1.032677281474206</v>
       </c>
       <c r="K24">
-        <v>1.03560294632669</v>
+        <v>1.035035150618511</v>
       </c>
       <c r="L24">
-        <v>1.019834881630504</v>
+        <v>1.039321919622298</v>
       </c>
       <c r="M24">
-        <v>1.025327594690137</v>
+        <v>1.048461315598981</v>
       </c>
       <c r="N24">
-        <v>1.009607049644727</v>
+        <v>1.014894768654607</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9961165750684445</v>
+        <v>1.02780190647148</v>
       </c>
       <c r="D25">
-        <v>1.025621199790653</v>
+        <v>1.032407379367934</v>
       </c>
       <c r="E25">
-        <v>1.011562825721218</v>
+        <v>1.03719117898636</v>
       </c>
       <c r="F25">
-        <v>1.017929084955935</v>
+        <v>1.046541848465609</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043953784529296</v>
+        <v>1.035305457007136</v>
       </c>
       <c r="J25">
-        <v>1.020775342488444</v>
+        <v>1.033443297345648</v>
       </c>
       <c r="K25">
-        <v>1.037834385554932</v>
+        <v>1.03547060900431</v>
       </c>
       <c r="L25">
-        <v>1.023984256830696</v>
+        <v>1.040239342598692</v>
       </c>
       <c r="M25">
-        <v>1.030255307500765</v>
+        <v>1.04956099747278</v>
       </c>
       <c r="N25">
-        <v>1.010816803159438</v>
+        <v>1.015151372674952</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_180/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_180/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028904871456082</v>
+        <v>1.001396739107281</v>
       </c>
       <c r="D2">
-        <v>1.033013221195416</v>
+        <v>1.028470250144045</v>
       </c>
       <c r="E2">
-        <v>1.03818385796169</v>
+        <v>1.015947707437262</v>
       </c>
       <c r="F2">
-        <v>1.047678363721872</v>
+        <v>1.022915388635817</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035483074724495</v>
+        <v>1.045107411546931</v>
       </c>
       <c r="J2">
-        <v>1.034054601174966</v>
+        <v>1.023535754054374</v>
       </c>
       <c r="K2">
-        <v>1.035816794069211</v>
+        <v>1.039546701715497</v>
       </c>
       <c r="L2">
-        <v>1.040972615499805</v>
+        <v>1.027189247874492</v>
       </c>
       <c r="M2">
-        <v>1.050440329937776</v>
+        <v>1.034064446389797</v>
       </c>
       <c r="N2">
-        <v>1.015356004987703</v>
+        <v>1.011747961658152</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029707341409009</v>
+        <v>1.005134378163642</v>
       </c>
       <c r="D3">
-        <v>1.033454025046741</v>
+        <v>1.030495323134106</v>
       </c>
       <c r="E3">
-        <v>1.038906953242518</v>
+        <v>1.019064641567045</v>
       </c>
       <c r="F3">
-        <v>1.048506246900083</v>
+        <v>1.026458944657191</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035610123831077</v>
+        <v>1.045907576476574</v>
       </c>
       <c r="J3">
-        <v>1.034498630581147</v>
+        <v>1.025486046772504</v>
       </c>
       <c r="K3">
-        <v>1.036067473869659</v>
+        <v>1.040752330603627</v>
       </c>
       <c r="L3">
-        <v>1.041505901525386</v>
+        <v>1.029459262291534</v>
       </c>
       <c r="M3">
-        <v>1.051080064207013</v>
+        <v>1.036764111545374</v>
       </c>
       <c r="N3">
-        <v>1.015504557472633</v>
+        <v>1.012405543154825</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030227332070611</v>
+        <v>1.007510494307317</v>
       </c>
       <c r="D4">
-        <v>1.033739663315654</v>
+        <v>1.031786125450458</v>
       </c>
       <c r="E4">
-        <v>1.039375907060998</v>
+        <v>1.021051971189978</v>
       </c>
       <c r="F4">
-        <v>1.049043166674329</v>
+        <v>1.028717925209454</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035691441394329</v>
+        <v>1.04640840855773</v>
       </c>
       <c r="J4">
-        <v>1.034786017460573</v>
+        <v>1.02672401269404</v>
       </c>
       <c r="K4">
-        <v>1.036229357644796</v>
+        <v>1.041515478307038</v>
       </c>
       <c r="L4">
-        <v>1.041851364307769</v>
+        <v>1.030902787192067</v>
       </c>
       <c r="M4">
-        <v>1.051494587953924</v>
+        <v>1.038481677820563</v>
       </c>
       <c r="N4">
-        <v>1.015600664655777</v>
+        <v>1.012822793568379</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030446111262964</v>
+        <v>1.008499567741853</v>
       </c>
       <c r="D5">
-        <v>1.03385984158418</v>
+        <v>1.032324183822394</v>
       </c>
       <c r="E5">
-        <v>1.039573307733649</v>
+        <v>1.021880572958549</v>
       </c>
       <c r="F5">
-        <v>1.049269178678377</v>
+        <v>1.029659711195264</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035725413081249</v>
+        <v>1.046614963257646</v>
       </c>
       <c r="J5">
-        <v>1.034906850397865</v>
+        <v>1.027238846118603</v>
       </c>
       <c r="K5">
-        <v>1.036297335086757</v>
+        <v>1.04183230548995</v>
       </c>
       <c r="L5">
-        <v>1.041996688968035</v>
+        <v>1.031503735837315</v>
       </c>
       <c r="M5">
-        <v>1.051668989133637</v>
+        <v>1.039196910946309</v>
       </c>
       <c r="N5">
-        <v>1.015641063755095</v>
+        <v>1.012996276133625</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030482855469182</v>
+        <v>1.008665068701929</v>
       </c>
       <c r="D6">
-        <v>1.033880025614772</v>
+        <v>1.032414259204055</v>
       </c>
       <c r="E6">
-        <v>1.039606466924337</v>
+        <v>1.02201930153832</v>
       </c>
       <c r="F6">
-        <v>1.04930714408772</v>
+        <v>1.029817385238255</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035731104493674</v>
+        <v>1.04664941205265</v>
       </c>
       <c r="J6">
-        <v>1.034927139650349</v>
+        <v>1.027324964033601</v>
       </c>
       <c r="K6">
-        <v>1.036308744159924</v>
+        <v>1.041885269404514</v>
       </c>
       <c r="L6">
-        <v>1.042021094975071</v>
+        <v>1.031604295602722</v>
       </c>
       <c r="M6">
-        <v>1.05169827974777</v>
+        <v>1.039316606284483</v>
       </c>
       <c r="N6">
-        <v>1.015647846671965</v>
+        <v>1.013025292754149</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030230254723026</v>
+        <v>1.007523748650903</v>
       </c>
       <c r="D7">
-        <v>1.033741268768988</v>
+        <v>1.03179333295418</v>
       </c>
       <c r="E7">
-        <v>1.039378543748801</v>
+        <v>1.0210630697489</v>
       </c>
       <c r="F7">
-        <v>1.049046185517263</v>
+        <v>1.028730540094074</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035691896168323</v>
+        <v>1.046411184174763</v>
       </c>
       <c r="J7">
-        <v>1.034787631976952</v>
+        <v>1.02673091377603</v>
       </c>
       <c r="K7">
-        <v>1.036230266272672</v>
+        <v>1.041519727401827</v>
       </c>
       <c r="L7">
-        <v>1.04185330578298</v>
+        <v>1.030910840116281</v>
       </c>
       <c r="M7">
-        <v>1.051496917781213</v>
+        <v>1.038491261407674</v>
       </c>
       <c r="N7">
-        <v>1.015601204488256</v>
+        <v>1.012825119173698</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029175915856174</v>
+        <v>1.002668853624674</v>
       </c>
       <c r="D8">
-        <v>1.033162107153829</v>
+        <v>1.029158735296279</v>
       </c>
       <c r="E8">
-        <v>1.038428010159133</v>
+        <v>1.017007327749938</v>
       </c>
       <c r="F8">
-        <v>1.047957896020251</v>
+        <v>1.024120121393577</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035526195752482</v>
+        <v>1.045381371542155</v>
       </c>
       <c r="J8">
-        <v>1.03420464768024</v>
+        <v>1.024199920357855</v>
       </c>
       <c r="K8">
-        <v>1.035901578594102</v>
+        <v>1.039957703558923</v>
       </c>
       <c r="L8">
-        <v>1.041152760125827</v>
+        <v>1.027961748474084</v>
       </c>
       <c r="M8">
-        <v>1.050656411451289</v>
+        <v>1.034982989106485</v>
       </c>
       <c r="N8">
-        <v>1.015406212062846</v>
+        <v>1.011971930225352</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027323774600915</v>
+        <v>0.9937751000085037</v>
       </c>
       <c r="D9">
-        <v>1.032144764573492</v>
+        <v>1.024362416120185</v>
       </c>
       <c r="E9">
-        <v>1.036761274880271</v>
+        <v>1.009625054903413</v>
       </c>
       <c r="F9">
-        <v>1.046049658050443</v>
+        <v>1.015725035917005</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035227413873237</v>
+        <v>1.043434349711933</v>
       </c>
       <c r="J9">
-        <v>1.033177949911722</v>
+        <v>1.019549606876875</v>
       </c>
       <c r="K9">
-        <v>1.035319970126967</v>
+        <v>1.037072220131334</v>
       </c>
       <c r="L9">
-        <v>1.039921371279671</v>
+        <v>1.022563878892301</v>
       </c>
       <c r="M9">
-        <v>1.049179797332602</v>
+        <v>1.028568035190553</v>
       </c>
       <c r="N9">
-        <v>1.015062507595404</v>
+        <v>1.010403197314955</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026092978831612</v>
+        <v>0.9875973101412423</v>
       </c>
       <c r="D10">
-        <v>1.03146881100693</v>
+        <v>1.021055540114674</v>
       </c>
       <c r="E10">
-        <v>1.035655765850795</v>
+        <v>1.004531525159693</v>
       </c>
       <c r="F10">
-        <v>1.044783990092038</v>
+        <v>1.00993002608239</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035023700731247</v>
+        <v>1.042043353831781</v>
       </c>
       <c r="J10">
-        <v>1.032493962770222</v>
+        <v>1.016311801838905</v>
       </c>
       <c r="K10">
-        <v>1.034930677489589</v>
+        <v>1.035054759556608</v>
       </c>
       <c r="L10">
-        <v>1.039102594784243</v>
+        <v>1.018819440715297</v>
       </c>
       <c r="M10">
-        <v>1.048198495304035</v>
+        <v>1.024122275940729</v>
       </c>
       <c r="N10">
-        <v>1.014833330793427</v>
+        <v>1.009310340920545</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025560993700239</v>
+        <v>0.9848583381971168</v>
       </c>
       <c r="D11">
-        <v>1.031176679387392</v>
+        <v>1.019596303852196</v>
       </c>
       <c r="E11">
-        <v>1.035178432609213</v>
+        <v>1.002281942615078</v>
       </c>
       <c r="F11">
-        <v>1.044237507999416</v>
+        <v>1.00736987909747</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034934426776982</v>
+        <v>1.041418033447769</v>
       </c>
       <c r="J11">
-        <v>1.032197918670539</v>
+        <v>1.014874882346151</v>
       </c>
       <c r="K11">
-        <v>1.034761756380855</v>
+        <v>1.034157888871516</v>
       </c>
       <c r="L11">
-        <v>1.038748584526108</v>
+        <v>1.017160952767826</v>
       </c>
       <c r="M11">
-        <v>1.047774339987372</v>
+        <v>1.022154135881413</v>
       </c>
       <c r="N11">
-        <v>1.014734091177242</v>
+        <v>1.008825222924336</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02536353642167</v>
+        <v>0.9838309057709488</v>
       </c>
       <c r="D12">
-        <v>1.031068254919363</v>
+        <v>1.019050046324202</v>
       </c>
       <c r="E12">
-        <v>1.03500133605578</v>
+        <v>1.001439438020271</v>
       </c>
       <c r="F12">
-        <v>1.0440347568316</v>
+        <v>1.006410939787714</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034901107229482</v>
+        <v>1.041182218378542</v>
       </c>
       <c r="J12">
-        <v>1.032087975102094</v>
+        <v>1.014335692550317</v>
       </c>
       <c r="K12">
-        <v>1.034698959501569</v>
+        <v>1.033821157137612</v>
       </c>
       <c r="L12">
-        <v>1.038617169842501</v>
+        <v>1.016539112531633</v>
       </c>
       <c r="M12">
-        <v>1.047616905046792</v>
+        <v>1.021416338426471</v>
       </c>
       <c r="N12">
-        <v>1.014697228972916</v>
+        <v>1.008643172716355</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025405885056308</v>
+        <v>0.9840517560720661</v>
       </c>
       <c r="D13">
-        <v>1.031091508402371</v>
+        <v>1.019167414010867</v>
       </c>
       <c r="E13">
-        <v>1.035039314501259</v>
+        <v>1.001620475634413</v>
       </c>
       <c r="F13">
-        <v>1.044078236903286</v>
+        <v>1.006617002670851</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034908261578771</v>
+        <v>1.041232963287971</v>
       </c>
       <c r="J13">
-        <v>1.032111557426555</v>
+        <v>1.01445160083224</v>
       </c>
       <c r="K13">
-        <v>1.034712431981047</v>
+        <v>1.033893551437491</v>
       </c>
       <c r="L13">
-        <v>1.038645355070946</v>
+        <v>1.016672765794628</v>
       </c>
       <c r="M13">
-        <v>1.047650670132555</v>
+        <v>1.021574908061688</v>
       </c>
       <c r="N13">
-        <v>1.014705136041694</v>
+        <v>1.008682308205121</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025544668837492</v>
+        <v>0.9847736181428109</v>
       </c>
       <c r="D14">
-        <v>1.031167715216714</v>
+        <v>1.019551237114885</v>
       </c>
       <c r="E14">
-        <v>1.035163789533416</v>
+        <v>1.002212443612889</v>
       </c>
       <c r="F14">
-        <v>1.044220743685255</v>
+        <v>1.007290777856403</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034931675816607</v>
+        <v>1.04139861369696</v>
       </c>
       <c r="J14">
-        <v>1.032188830277177</v>
+        <v>1.01483042524077</v>
       </c>
       <c r="K14">
-        <v>1.034756566625977</v>
+        <v>1.034130128398704</v>
       </c>
       <c r="L14">
-        <v>1.038737720096415</v>
+        <v>1.017109671014352</v>
       </c>
       <c r="M14">
-        <v>1.047761324004965</v>
+        <v>1.02209328845979</v>
       </c>
       <c r="N14">
-        <v>1.014731044137016</v>
+        <v>1.008810212857431</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025630197464907</v>
+        <v>0.9852170347776324</v>
       </c>
       <c r="D15">
-        <v>1.031214680234546</v>
+        <v>1.019787158544766</v>
       </c>
       <c r="E15">
-        <v>1.035240510101574</v>
+        <v>1.002576250073624</v>
       </c>
       <c r="F15">
-        <v>1.044308578235371</v>
+        <v>1.007704844063599</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034946081024799</v>
+        <v>1.041500204208105</v>
       </c>
       <c r="J15">
-        <v>1.032236443372757</v>
+        <v>1.015063102401761</v>
       </c>
       <c r="K15">
-        <v>1.034783752576464</v>
+        <v>1.034275412137292</v>
       </c>
       <c r="L15">
-        <v>1.038794639949144</v>
+        <v>1.017378086664184</v>
       </c>
       <c r="M15">
-        <v>1.047829516830923</v>
+        <v>1.022411778019157</v>
       </c>
       <c r="N15">
-        <v>1.014747006958829</v>
+        <v>1.008888771148013</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026128305262976</v>
+        <v>0.9877777016427097</v>
       </c>
       <c r="D16">
-        <v>1.031488210803519</v>
+        <v>1.021151798315072</v>
       </c>
       <c r="E16">
-        <v>1.035687473700931</v>
+        <v>1.004679869928125</v>
       </c>
       <c r="F16">
-        <v>1.044820291371454</v>
+        <v>1.010098833881908</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035029603179151</v>
+        <v>1.042084362238201</v>
       </c>
       <c r="J16">
-        <v>1.032513613028524</v>
+        <v>1.016406412197915</v>
       </c>
       <c r="K16">
-        <v>1.034941880858257</v>
+        <v>1.035113783163755</v>
       </c>
       <c r="L16">
-        <v>1.03912610048107</v>
+        <v>1.018928707903083</v>
       </c>
       <c r="M16">
-        <v>1.048226661155544</v>
+        <v>1.024251964380213</v>
       </c>
       <c r="N16">
-        <v>1.014839916946017</v>
+        <v>1.009342280137554</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026441012776845</v>
+        <v>0.9893665106410798</v>
       </c>
       <c r="D17">
-        <v>1.031659940826763</v>
+        <v>1.02200039541314</v>
       </c>
       <c r="E17">
-        <v>1.035968207552951</v>
+        <v>1.005987420588148</v>
       </c>
       <c r="F17">
-        <v>1.045141694819463</v>
+        <v>1.011586663949009</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035081709867543</v>
+        <v>1.042444569299488</v>
       </c>
       <c r="J17">
-        <v>1.032687509133164</v>
+        <v>1.017239541475663</v>
       </c>
       <c r="K17">
-        <v>1.035040976438086</v>
+        <v>1.035633369114144</v>
       </c>
       <c r="L17">
-        <v>1.039334158671545</v>
+        <v>1.01989127680042</v>
       </c>
       <c r="M17">
-        <v>1.048475982693059</v>
+        <v>1.025394541808705</v>
       </c>
       <c r="N17">
-        <v>1.014898196055401</v>
+        <v>1.009623520932285</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026623502047176</v>
+        <v>0.9902870976004796</v>
       </c>
       <c r="D18">
-        <v>1.031760162014451</v>
+        <v>1.022492738867762</v>
       </c>
       <c r="E18">
-        <v>1.036132085892215</v>
+        <v>1.006745862997531</v>
       </c>
       <c r="F18">
-        <v>1.045329314431808</v>
+        <v>1.012449606069984</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035112000027253</v>
+        <v>1.042652457925736</v>
       </c>
       <c r="J18">
-        <v>1.032788951938248</v>
+        <v>1.017722136109694</v>
       </c>
       <c r="K18">
-        <v>1.035098742893802</v>
+        <v>1.035934193587827</v>
       </c>
       <c r="L18">
-        <v>1.039455566079871</v>
+        <v>1.020449161220937</v>
       </c>
       <c r="M18">
-        <v>1.048621480446919</v>
+        <v>1.026056848483477</v>
       </c>
       <c r="N18">
-        <v>1.014932188802114</v>
+        <v>1.00978642011133</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02668574176725</v>
+        <v>0.9905999659895294</v>
       </c>
       <c r="D19">
-        <v>1.031794343943546</v>
+        <v>1.022660173059464</v>
       </c>
       <c r="E19">
-        <v>1.036187986334849</v>
+        <v>1.007003763413161</v>
       </c>
       <c r="F19">
-        <v>1.04539331331877</v>
+        <v>1.012743028776635</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03512231073113</v>
+        <v>1.042722969573279</v>
       </c>
       <c r="J19">
-        <v>1.03282354333341</v>
+        <v>1.017886125322807</v>
       </c>
       <c r="K19">
-        <v>1.035118433903118</v>
+        <v>1.036036389581438</v>
       </c>
       <c r="L19">
-        <v>1.039496971401498</v>
+        <v>1.020638787270233</v>
       </c>
       <c r="M19">
-        <v>1.048671103700397</v>
+        <v>1.026281983725081</v>
       </c>
       <c r="N19">
-        <v>1.01494377935532</v>
+        <v>1.009841772494221</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026407452663173</v>
+        <v>0.9891966845633564</v>
       </c>
       <c r="D20">
-        <v>1.031641510223806</v>
+        <v>1.021909621778031</v>
       </c>
       <c r="E20">
-        <v>1.03593807389953</v>
+        <v>1.005847572338884</v>
       </c>
       <c r="F20">
-        <v>1.045107195697065</v>
+        <v>1.011427541466618</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035076129939657</v>
+        <v>1.042406152109717</v>
       </c>
       <c r="J20">
-        <v>1.032668850460587</v>
+        <v>1.017150503127074</v>
       </c>
       <c r="K20">
-        <v>1.035030347961004</v>
+        <v>1.03557785494259</v>
       </c>
       <c r="L20">
-        <v>1.03931183075318</v>
+        <v>1.019788372688782</v>
       </c>
       <c r="M20">
-        <v>1.048449225316909</v>
+        <v>1.025272384112249</v>
       </c>
       <c r="N20">
-        <v>1.014891943303769</v>
+        <v>1.009593465242091</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025503796436726</v>
+        <v>0.9845613290912059</v>
       </c>
       <c r="D21">
-        <v>1.031145271813278</v>
+        <v>1.019438328642293</v>
       </c>
       <c r="E21">
-        <v>1.035127129028734</v>
+        <v>1.002038316951158</v>
       </c>
       <c r="F21">
-        <v>1.044178772440753</v>
+        <v>1.00709259118707</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034924785296529</v>
+        <v>1.041349932307593</v>
       </c>
       <c r="J21">
-        <v>1.032166074775023</v>
+        <v>1.014719023163671</v>
       </c>
       <c r="K21">
-        <v>1.034743571500109</v>
+        <v>1.034060562371965</v>
       </c>
       <c r="L21">
-        <v>1.038710518664165</v>
+        <v>1.016981175418943</v>
       </c>
       <c r="M21">
-        <v>1.047728736002092</v>
+        <v>1.021940826705031</v>
       </c>
       <c r="N21">
-        <v>1.014723414850051</v>
+        <v>1.008772599913822</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024936475699422</v>
+        <v>0.9815884733209562</v>
       </c>
       <c r="D22">
-        <v>1.030833766860028</v>
+        <v>1.017859975907141</v>
       </c>
       <c r="E22">
-        <v>1.034618450191537</v>
+        <v>0.9996031550750543</v>
       </c>
       <c r="F22">
-        <v>1.043596405936088</v>
+        <v>1.004320643144613</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03482870805254</v>
+        <v>1.040665298700338</v>
       </c>
       <c r="J22">
-        <v>1.031850078385979</v>
+        <v>1.013158589909881</v>
       </c>
       <c r="K22">
-        <v>1.034562963180436</v>
+        <v>1.03308573625365</v>
       </c>
       <c r="L22">
-        <v>1.03833291634058</v>
+        <v>1.015182477642267</v>
       </c>
       <c r="M22">
-        <v>1.047276403351413</v>
+        <v>1.019806990434748</v>
       </c>
       <c r="N22">
-        <v>1.01461745345291</v>
+        <v>1.008245716177574</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025237142564322</v>
+        <v>0.98317013495434</v>
       </c>
       <c r="D23">
-        <v>1.030998853492848</v>
+        <v>1.018699061234043</v>
       </c>
       <c r="E23">
-        <v>1.034887996578766</v>
+        <v>1.000897985882843</v>
       </c>
       <c r="F23">
-        <v>1.043904998850608</v>
+        <v>1.005794622520625</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034879727453308</v>
+        <v>1.041030213537656</v>
       </c>
       <c r="J23">
-        <v>1.032017582359473</v>
+        <v>1.013988878516306</v>
       </c>
       <c r="K23">
-        <v>1.034658735142385</v>
+        <v>1.033604518453362</v>
       </c>
       <c r="L23">
-        <v>1.038533045742376</v>
+        <v>1.016139274892435</v>
       </c>
       <c r="M23">
-        <v>1.047516129565426</v>
+        <v>1.020941981980508</v>
       </c>
       <c r="N23">
-        <v>1.014673625512924</v>
+        <v>1.008526071865176</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026422616749104</v>
+        <v>0.9892734405952716</v>
       </c>
       <c r="D24">
-        <v>1.031649838053459</v>
+        <v>1.021950646592032</v>
       </c>
       <c r="E24">
-        <v>1.035951689595823</v>
+        <v>1.005910776793774</v>
       </c>
       <c r="F24">
-        <v>1.045122783900998</v>
+        <v>1.011499457135738</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035078651586588</v>
+        <v>1.042423518020101</v>
       </c>
       <c r="J24">
-        <v>1.032677281474206</v>
+        <v>1.017190746079276</v>
       </c>
       <c r="K24">
-        <v>1.035035150618511</v>
+        <v>1.03560294632669</v>
       </c>
       <c r="L24">
-        <v>1.039321919622298</v>
+        <v>1.019834881630504</v>
       </c>
       <c r="M24">
-        <v>1.048461315598981</v>
+        <v>1.025327594690137</v>
       </c>
       <c r="N24">
-        <v>1.014894768654607</v>
+        <v>1.009607049644727</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02780190647148</v>
+        <v>0.9961165750684441</v>
       </c>
       <c r="D25">
-        <v>1.032407379367934</v>
+        <v>1.025621199790653</v>
       </c>
       <c r="E25">
-        <v>1.03719117898636</v>
+        <v>1.011562825721217</v>
       </c>
       <c r="F25">
-        <v>1.046541848465609</v>
+        <v>1.017929084955934</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035305457007136</v>
+        <v>1.043953784529296</v>
       </c>
       <c r="J25">
-        <v>1.033443297345648</v>
+        <v>1.020775342488444</v>
       </c>
       <c r="K25">
-        <v>1.03547060900431</v>
+        <v>1.037834385554932</v>
       </c>
       <c r="L25">
-        <v>1.040239342598692</v>
+        <v>1.023984256830696</v>
       </c>
       <c r="M25">
-        <v>1.04956099747278</v>
+        <v>1.030255307500764</v>
       </c>
       <c r="N25">
-        <v>1.015151372674952</v>
+        <v>1.010816803159437</v>
       </c>
     </row>
   </sheetData>
